--- a/va_facility_data_2025-02-20/Grand Prairie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grand%20Prairie%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Grand Prairie VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grand%20Prairie%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8bb41937e97348ba8ddc8cc85512c283"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R02255c5bf0af4cdb83a4424edc9a91b8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R52f492a73bed477a85872eee070aab1d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5a70fe263f7c49c0aae7528e77329bb2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R794fd3c5fb1a480aa1321893b64cd577"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1e46d9e658d54abdaa0d7b612cbdd869"/>
   </x:sheets>
 </x:workbook>
 </file>
